--- a/data/hotels_by_city/Dallas/Dallas_shard_398.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_398.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kevin M</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ThomasTheBeachCat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r563724007-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -238,6 +244,9 @@
 We still enjoyed our stay and hope to stay...Very friendly staff! I watched one deal graciously with an upset customer with a smile on his face.Our room had a good sized fridge for our food. We had the ease of a continental breakfast that was by far one of the best we've ever had complete with oatmeal, waffles, yogurt, and several kinds of sandwiches. There wasn't much in the way of fresh fruit, which was disappointing.I like that Home2 had receptacles in the room for recycling and that the shampoo &amp; body wash are installed in the shower instead of tiny plastic bottles. The king bed was comfy as was the room temp considering it is the middle of June in Texas. My kids never once complained about the couch pull-out bed, which is saying something! Our only complaint was that our room wasn't ready when we got there at 6 p.m. We had the reservation for several weeks but according to the guy at the desk they weren't notified that there was a late check-out. We aren't impressed by poor communication skills between staff. It took an additional 20 minutes for our room to be ready.  When you've been in a car for 17 hours in a day and show up in the evening, your expectation is to be able to quickly be able to lie down in bed, not wait for cleaning to be finished. We still enjoyed our stay and hope to stay there again in the future More</t>
   </si>
   <si>
+    <t>borawski2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r583685471-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -263,6 +272,9 @@
   </si>
   <si>
     <t>We stayed at Home2 Suites as it is Hilton. We have also stayed at Hampton Suites as well. Service has always been excellent. That is why we always come back. We have never had any issues while staying at any Hilton owned places.More</t>
+  </si>
+  <si>
+    <t>RussellBee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r582310185-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -298,6 +310,9 @@
 Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of...I'm staying in the area for several months and have been trying all the local hotel sites in a similar price range.  This Home2 Suites is a new hotel.  I walked around whole hotel in my sock feet on the new carpet - like being at home. The full size fridge is nice and there is an entire wall of usable desk and work space.  The kitchenette is fully stocked with utensils - everything i could need.  The room feels open and larger than its actual size.   There are plenty of USB ports to save you from having to find your power brick. There is plenty of close parking.  The breakfasts are like a free run at the grab-n-go section at the local 7-11.  Grab a package of something, nuke it, and then eat.  There is a waffle maker and oatmeal as well.  I enjoyed the fresh fruit and yogurt to take with me on the run. I have had a lot better coffee but just my opinion.  I preferred the in-room coffee over what was available in the breakfast area.  Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of phone apps and settings and waiting for things to time out.  It can take over half an hour to get one connected like this.  The first week I asked the front desk and got no real info.  The second week (would be my last if this issue couldn't change) i asked the front desk and a manager happened to be around.  He gave me the phone number to the support desk of the company that manages the infrastructure for this hotel.  I expected no help but gave it a try.  I was VERY surprised to get a knowledgeable person who knew how to help. Remember this tip: If you travel with a device like an Echo or Fire Stick or other streaming device (without a screen to answer all the annoying questions) you call the support center and give them the MAC address of your device.  They can add it to a table that will NOT expire the entire length of your stay.  Whew!  Another odd thing about his hotel.  The Home2 Suites line seems to be the ugly sister of the Hilton chain.  It's hard to locate via the Hilton site and they only give HALF the usual number of Honors points for your stay.  Beware of this if you are saving up points for a future trip. All said I will stay here again.  They play with the rates constantly so if you get a high rate try again or book your stay further out.More</t>
   </si>
   <si>
+    <t>tracy c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r551461798-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -319,6 +334,9 @@
     <t>This property is wonderful. My husband and I have stayed here twice. Both times the staff was friendly, helpful, professional, etc. Our trips are just for fun and we have only stayed overnight. The rooms are so well equipped we are thinking about taking a "real" vacation &amp; staying a weekMore</t>
   </si>
   <si>
+    <t>davidpD4844QJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r550587574-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -340,6 +358,9 @@
     <t>Excellent, clean, large rooms close to family. We were part of overflow family visiting family over Christmas near Hulen Mall. Extremely convenient location. Hotel not too big so as to be inconvient. But we pretty much only slept there, arriving late Christmas Eve and checking out early Christmas Day, and we didn't really use the facilities, so cannot opine on rest of girl.More</t>
   </si>
   <si>
+    <t>Dinah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r549884272-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -358,6 +379,9 @@
     <t>Stayed at Home2 by Hilton in Fort Worth Cityview over Christmas.  Room was excellent, clean, bed so comfortable.  Staff was friendly.  Would certainly recommend it!  We did not eat breakfast there but it looked good.More</t>
   </si>
   <si>
+    <t>jeffrybradys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r549648279-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -379,6 +403,9 @@
     <t>A very outstanding visit in a great hotel. The staff is very professional. The hotel made made the trip for the Armed Forces Bowl a great trip. The location of the hotel is also great with many other activities or places to go really close.More</t>
   </si>
   <si>
+    <t>Mark N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r548611130-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -397,6 +424,9 @@
     <t>I spent one night at the Home 2 Suites in Fort Worth.  The hotel is located in a kind of weird location, next to a large strip mall and a couple of restaurants.  There is a small, but functional gym and the free breakfast was above average for this kind of hotel.  The rooms are a little loud, I could hear every noise from the room above me.More</t>
   </si>
   <si>
+    <t>jessicalS2430DV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r546752674-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -415,6 +445,9 @@
     <t>Great job the staff was so sweet and accommodating thank you for working great as a team! We will definitely be back when visiting family in Texas! Thank you for such a wonderful experience.  We will be booking with the same hotel for our family trips in the future. We loved the breakfast selection and the ability to use and reuse the dishes in our suite. I have no complaints and enjoyed the stay now the kids are always wanting to stay at the same hotel.More</t>
   </si>
   <si>
+    <t>samuelh201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r546298987-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -433,6 +466,9 @@
     <t>A co-worker suggested HOME2 suites.  The room was a king size studio.  Comfortable bed, nice desk with lots of space, good wifi, quiet room.  2 cups of coffee in room.  I liked the complimentary breakfast.  The mirning of check out I was late and the microwave type breakfast sandwich and yogurt to go was perfect to eat in car.  I will use the gym next time it looked nice.More</t>
   </si>
   <si>
+    <t>jpoehlein</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r545190357-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -451,6 +487,9 @@
     <t>We stayed here only one night, however we will be keeping an eye out for this hotel in other areas as well. Families would enjoy staying here since there is a nice size kitchen area and the rooms are a nice size.More</t>
   </si>
   <si>
+    <t>ethantf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r543741174-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -469,6 +508,9 @@
     <t>The  lobby looked great upon arrival.  I got to my room and everything seemed okay.  Went on my routine hotel check, as I stay in hotels quite a large amount of time per year, and noticed the toilet seat had liquid residue covering the entire seat.  I'm not sure if it was cleaning product or bodily fluid but it was all over the toilet seat so I had to clean that off before using it.  The shower had a few strands of long hair on the walls so obviously the shower hadn't been cleaned very well either.  The bathroom just seemed a little thrown together to look clean...   The floors and walls were very thin at this location.  I could hear the people above me walking which is why I always request a top floor but wasn't given one this time.  I could also hear the television in the room next to me at night.    One main problem I had was there was a car show in the parking lot behind the hotel which caused a large amount of people and noise, not the hotels fault.  However, we had to search for a parking spot at the hotel for quite some time before finding one because of people parking there that weren't staying and many trucks with trailers parked in multiple parking spots.  Your hotel guests shouldn't have to worry about finding parking.  I told the front desk receptionist and...The  lobby looked great upon arrival.  I got to my room and everything seemed okay.  Went on my routine hotel check, as I stay in hotels quite a large amount of time per year, and noticed the toilet seat had liquid residue covering the entire seat.  I'm not sure if it was cleaning product or bodily fluid but it was all over the toilet seat so I had to clean that off before using it.  The shower had a few strands of long hair on the walls so obviously the shower hadn't been cleaned very well either.  The bathroom just seemed a little thrown together to look clean...   The floors and walls were very thin at this location.  I could hear the people above me walking which is why I always request a top floor but wasn't given one this time.  I could also hear the television in the room next to me at night.    One main problem I had was there was a car show in the parking lot behind the hotel which caused a large amount of people and noise, not the hotels fault.  However, we had to search for a parking spot at the hotel for quite some time before finding one because of people parking there that weren't staying and many trucks with trailers parked in multiple parking spots.  Your hotel guests shouldn't have to worry about finding parking.  I told the front desk receptionist and she was very unapologetic and said "there's nothing I can do about it'.  That as well as the noise that happened until 12:30 at night wasn't very pleasant.  I will stay at a different hotel when in this area.      Other areas are fine and I do like the Home2 Brand so I will stay in the other areas I travel to with work. This was just a terrible 4 nights at this property.More</t>
   </si>
   <si>
+    <t>elizabeth b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r540839901-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -487,6 +529,9 @@
     <t>This hotel was new and clean for the most part. Unfortunately, the first impression was only skin deep. The pillows in the room were years old. My room was not serviced once during my two day stay, and the breakfast is simply the worst I've experienced in hundreds of hotels around the world.More</t>
   </si>
   <si>
+    <t>keg198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r540492284-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -505,6 +550,9 @@
     <t>This was my first stay at a Home2. It was very nice and comfortable. The rooms are extremely spacious and comfortable. It makes being away from home nice. The breakfast is excellent. It's quite the selection compared to some of the hotels I've stayed at. Staff was friendly and the workout facility is adequate. I recommend staying here.More</t>
   </si>
   <si>
+    <t>Crawfish Boil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r539699582-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -523,6 +571,9 @@
     <t>We were impressed by the room layout. The bed was very good but the AC was a little loud.The breakfast was tasty and the lobby was comfortable. The hotel was clean. It's located off I-20 in a confusing maze of streets and highways.Bring your GPS! Overall this hotel is a very good value and we would stay here again.More</t>
   </si>
   <si>
+    <t>O3249VUkarenf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r537526042-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -544,6 +595,9 @@
     <t>Was in town for a funeral and the staff was very understanding and thoughtful. Would definitely stay again should I be in town again. Breakfast was like being at an IHOP or Denny’s if not better. Had separate sitting area plus kitchenette plus a huge bathroom that was very accommodating for my wheelchair. Thought for all the amenities I would be paying more but the price was great. My only complaint is that the beds are not very comfortable, too hard for my back so I asked for extra pillows and used them to prop myself into an ergonomic position which helped a lot. Will definitely use this chain again in the future!More</t>
   </si>
   <si>
+    <t>lisaaL9816XS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r537550835-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -559,6 +613,9 @@
     <t>Front desk clerk was very rude upon arrival as well as departure.  Was given no information upon arrival.  Just handed keys and given a blank stare.  Upon departure never said thanks for staying, was everything ok, etc.  Poor customer service.  Otherwise the stay and the hotel accomodations were very nice. Location was excellent to places to eat and things to do.More</t>
   </si>
   <si>
+    <t>792judya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r535826627-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -577,6 +634,9 @@
     <t>The Fort Worth Home 2 was a big disappointment in that it was not up to standard in every way.  The property is only 6 months old and looked 10 years.  It was noisy, kids running wild, breakfast room had sour food, creamer in room was out of date by a month, front desk employees were sloppy looking and acting.More</t>
   </si>
   <si>
+    <t>jimmyp846</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533897705-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -595,6 +655,9 @@
     <t>Love the layout and outdoor seating. Breakfast was great just not a lot of seating when busy. Young kids seem to have a run at the breakfast bar as some didn’t have parents making them behave but that was just my trip.  It’s a great place none the lessMore</t>
   </si>
   <si>
+    <t>SamandMiranda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533611022-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -613,6 +676,9 @@
     <t>I needed a place to stay for a few hours and was able to check in at 6:00am and out at Noon with no issues. The room was clean and the staff was super helpful. It was also the red river shootout weekend and finding a place was crazy... glad I found this one though!More</t>
   </si>
   <si>
+    <t>sharonwL2327OQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533009026-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -631,6 +697,9 @@
     <t>This was an excellent choice.  Very clean, smelled clean, the bed was very comfortable. All the shopping amenities were in 5 miles and yet was close distance of my family. I really like This hotel, and will pick it againMore</t>
   </si>
   <si>
+    <t>Badgelady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532900641-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -646,6 +715,9 @@
     <t>We usually stay at Hampton Inn, but decided to try this new Hilton brand.  Located close to TCU and  restaurants and very clean.  Lobby hallways and rooms had a fresh smell every day..all day.  Room was large with microwave, large fridge, flat screen tv but small bathroom with shower and fluffy towels. Bath gel and shampoo were on dispensers in shower to save on throwing the little plastic bottles in the trash.  Real downside was the breakfast and the coffee.  At Hampton there are hot items such as bacon,  ham or sausage and eggs.  At Home2 there was oatmeal and toast, bagels, and waffles.  Breakfast sandwiches were prepackaged for the microwave.    Perhaps the biggest negative for me was the coffee.  Instead of offering a robust and a weaker regular choice, there was hot water, decaf, and a VERY weak  regular coffee...so weak that we passed on coffee after tasting it. Hotel staff was very friendly and professional but we will likely go to Hampton next visit More</t>
   </si>
   <si>
+    <t>vett20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532179995-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -664,6 +736,9 @@
     <t>Really felt like home and it was very close to college and eateries. Very reasonable and comfortable.As a mother of two it was very safe. The breakfast was very healthy and I really enjoyed it and so did my sons!More</t>
   </si>
   <si>
+    <t>Mlhpuck222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532237616-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -679,6 +754,9 @@
     <t>We stayed for 2 nights at Home2Suites in Ft. Worth.  The staff was extremely helpful in helping us secure a room after leaving another hotel which was dirty and dingy and irritating my eyes.  Accommodations here are very comfortable and clean.  Very nice breakfast!  Friendly staff!  Would definitely book again!More</t>
   </si>
   <si>
+    <t>E2441UYjamesb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r530688988-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -700,6 +778,9 @@
     <t>One of the best hotels i've stayed in. I love this brand, Home 2 Suites. I will always look for a Home 2 Suites when book a hotel room anywhere. Chris, the young lady at the front desk, was such a pleasant person to deal with. The rooms were so comfortable, we felt at home in the hotel.More</t>
   </si>
   <si>
+    <t>brandonj466</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r530030953-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -718,6 +799,9 @@
     <t>Nasty rooms. Poor house keeping. Even one employee told me to go to the front desk for sheets because they don't change the sheets. Customer service was horrible. I will never stay at this home2 suites again.More</t>
   </si>
   <si>
+    <t>Kristin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r529195752-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -736,6 +820,9 @@
     <t>Really nice hotel with super friendly staff!  The rooms have a very large fridge and freezer plus a microwave and dishwasher.  Breakfast is served each morning. There are biscuits and gravy on the weekends and they are amazing!!  There's a Fudruckers and Twin Peaks next door in walking distance.  Would stay again.  More</t>
   </si>
   <si>
+    <t>Kathy Darlene P... B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r529341246-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -751,6 +838,9 @@
     <t>I was so surprised on the size of the suite. There was so much counter space which was great for my work project. The towels were super soft and the bed was perfect. Lounging on the coach vs a chair or the bed was an added bonus.More</t>
   </si>
   <si>
+    <t>692leroyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r508915595-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -772,6 +862,9 @@
     <t>bathroom not working - minimal very limited breakfast options and even they were not refilled.   Breakfast area not clean.  Poor choice for Hilton to put there name on this building.  These Hilton2Suites are very low end and I will not use them again.More</t>
   </si>
   <si>
+    <t>SHANNON N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r507070738-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -790,6 +883,9 @@
     <t>We needed a hotel that would accommodate a family of 6 (2 parents and 4 teenagers) for around $150 per night. This one was perfect.  The location was good. Plenty of restaurants and shopping nearby. Room was very clean and comfortable. More</t>
   </si>
   <si>
+    <t>joy w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r506636720-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -808,6 +904,9 @@
     <t>Nice location mall in walking distance main events restaurants off highway close to everything. Pool and laundry together indoor. Cold. Clean rooms are spacious. Okay staff. It was a one day stay. Breakfast was okay. Limited selections.More</t>
   </si>
   <si>
+    <t>Travelgrl4daysaweek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r506432837-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -821,6 +920,9 @@
   </si>
   <si>
     <t>Clean, luxurious and comfortable bed, great coffee! I love the kitchen! As a vegan I can go to a grocery store like Whole Foods and get healthy foods to eat while I'm working instead of having to depend on fast food. More</t>
+  </si>
+  <si>
+    <t>normapabon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r505907309-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -1343,43 +1445,47 @@
       <c r="A2" t="n">
         <v>66009</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1403,50 +1509,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66009</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156709</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1464,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1483,37 +1593,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1527,50 +1637,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66009</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1592,56 +1706,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66009</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156711</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1659,56 +1777,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66009</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156712</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1720,56 +1842,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66009</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156713</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1791,56 +1917,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66009</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1862,56 +1992,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66009</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156714</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1933,56 +2067,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66009</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>6644</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1998,56 +2136,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66009</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156715</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2069,56 +2211,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66009</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156716</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2140,56 +2286,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66009</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156717</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2211,56 +2361,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66009</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156718</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2282,56 +2436,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66009</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156719</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2353,56 +2511,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66009</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156720</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2420,56 +2582,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66009</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>34266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2491,56 +2657,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66009</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156721</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2562,56 +2732,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66009</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156722</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2633,56 +2807,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66009</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156723</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2704,56 +2882,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66009</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156724</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>185</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>168</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2775,56 +2957,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66009</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156725</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2846,56 +3032,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66009</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156726</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2917,56 +3107,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66009</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>115523</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2978,56 +3172,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66009</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156727</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3049,56 +3247,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66009</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156728</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3120,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66009</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156729</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3191,56 +3397,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66009</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156730</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3262,56 +3472,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66009</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>8209</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O30" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3323,56 +3537,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66009</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>103876</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3394,56 +3612,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66009</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156731</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3465,56 +3687,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66009</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156732</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3536,56 +3762,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66009</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>68772</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3601,56 +3831,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y34" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66009</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156733</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3672,56 +3906,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y35" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66009</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156734</v>
+      </c>
+      <c r="C36" t="s">
+        <v>296</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3735,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_398.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_398.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,337 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kevin M</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r607619819-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>12080746</t>
+  </si>
+  <si>
+    <t>607619819</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Who thinks no hair conditioner in Texas is a good idea??</t>
+  </si>
+  <si>
+    <t>Just leaving after ANOTHER disappointing stay at a home2suites Hilton.  We checked in yesterday, ate out and got in late for bed. The beds were comfortable but I did have to get the extra pillows out, no big deal. The TV didn’t work, ugh. But okay. Got up this morning to discover no caffeinated coffee!!!  We are in a hurry so didn’t really have time to call down and wait for someone to bring up coffee.  Hopped in the shower only to discover ... no conditioner! What the heck?!?  This is the type of hotel where shampoo and soap is in the dispenser on the wall. There is not even a dispenser for hair conditioner!  This is Texas! We need our hair conditioner!  If you are going to stop having hair products you should really leave a notice. The lady at the check out desk was nice, as always.  Hilton does hire the nicest people. MoreShow less</t>
+  </si>
+  <si>
+    <t>Just leaving after ANOTHER disappointing stay at a home2suites Hilton.  We checked in yesterday, ate out and got in late for bed. The beds were comfortable but I did have to get the extra pillows out, no big deal. The TV didn’t work, ugh. But okay. Got up this morning to discover no caffeinated coffee!!!  We are in a hurry so didn’t really have time to call down and wait for someone to bring up coffee.  Hopped in the shower only to discover ... no conditioner! What the heck?!?  This is the type of hotel where shampoo and soap is in the dispenser on the wall. There is not even a dispenser for hair conditioner!  This is Texas! We need our hair conditioner!  If you are going to stop having hair products you should really leave a notice. The lady at the check out desk was nice, as always.  Hilton does hire the nicest people. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r591782696-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>591782696</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I booked 7 rooms for out of town family members to come and celebrate the graduation for my daughter. I wanted to provide my family a convenient hotel with access to restaurants and activities during their down time. The hotel was very accommodating with making the advanced bookings to include allowing me to come in early and provide the individual names of each family member who would be staying in each room. My family members were very pleased with the accommodations and enjoyed the close proximity to other venues. Many of them were surprised by the size of the rooms. They all had high remarks for the hotel. The hotel was not quite 1 year old at the time of their stay. As of June 2018 it is now 1 year old. The hotel is near major highways and convenient to downtown Ft Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>I booked 7 rooms for out of town family members to come and celebrate the graduation for my daughter. I wanted to provide my family a convenient hotel with access to restaurants and activities during their down time. The hotel was very accommodating with making the advanced bookings to include allowing me to come in early and provide the individual names of each family member who would be staying in each room. My family members were very pleased with the accommodations and enjoyed the close proximity to other venues. Many of them were surprised by the size of the rooms. They all had high remarks for the hotel. The hotel was not quite 1 year old at the time of their stay. As of June 2018 it is now 1 year old. The hotel is near major highways and convenient to downtown Ft Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r606464463-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>606464463</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>A Wonderful And Clean</t>
+  </si>
+  <si>
+    <t>Stayed at this spot for 2 nights, absolutely liked it, the ambience was awesome the stuff members just absolutely great, breakdast was great.Lots of restraunt and things to do in the nearby...the best part about it, it's just a few miles from downtown fortworth ,for night lovers the cost for a ride to 7th street cost $8-15.Had an awesome experience, hopping from one spot to another..security was pretty good every where lots of FortworthPD presence..</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r605462091-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>605462091</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>One of my best hotel stays!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! This facility was clean and staff was friendly and helpful. Breakfast was delicious and the gym was immaculate. My family enjoyed the indoor pool and loved the kichenette. I would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r604795690-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>604795690</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very new, very clean hotel. Front desk was wonderful and the breakfast was delicious.  The room was super spacious. We actually had an opportunity and a room booked to stay at a hotel closer to my husband's meeting and daughters appointment at Cooks but stayed here because the kids loved it so much :)Only negative is that the pool is VERY small and I they used cheaper materials building the hotel so it is getting scuffs and probably going to look worn pretty soon.But again loved the stay and would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r604006330-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>604006330</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Home 2 Suites - Fort Worth</t>
+  </si>
+  <si>
+    <t>I appreciated the customer service from both the front desk lobby and housekeeping.  Everything was clean and organized.  The Digital Key experience was really easy to use!  I would recommend this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r599041612-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>599041612</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Great Property and Location</t>
+  </si>
+  <si>
+    <t>Was in Dallas for 10 days with my daughter for 2019 Jr. Gold Bowling Tournament. Staff and hotel was perfect! Room was very spacious and comfortable. Staff were extremely freindly everytime we were coming and going. I would recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r595980526-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>595980526</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable but not quiet </t>
+  </si>
+  <si>
+    <t>Very good service and clean rooms, and super comfy microfiber sheets. The biggest issue is the walls are paper thin and I could hear my neighbors causal conversations. That part I really didn’t like. Stay there with that in mind. Event the a/c  didn’t drown it out.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Daniel L, Guest Services Representative at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Very good service and clean rooms, and super comfy microfiber sheets. The biggest issue is the walls are paper thin and I could hear my neighbors causal conversations. That part I really didn’t like. Stay there with that in mind. Event the a/c  didn’t drown it out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r595718280-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>595718280</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Luggage Fiasco!!!!   .....they fixed it.</t>
+  </si>
+  <si>
+    <t>I stayed at the Home2Suites in Late March of 2018, upon checkout at 430am with a flight to catch and an uber that decided to no-show, we were required to pack 2 cars of luggage, equipment and people into one minivan.  In the midst of the chaos my suitcase was left sitting outside next to the front door.  Upon discovery of the screw up, a quick call to Jeff at the front desk put me at ease with his confidence that they'd be happy to ship it to my next destination.  Later that morning the General Manager, Jeff Loudin (Two men both named Jeff), called me from the UPS store to go over pricing and options for shipping.  I was in a meeting at the time, he persisted after being sent to voicemail multiple times and waited there in the store for me to return his call.  That's what I call 5-Star service!!  Jeff Loudin provided the kind of service that keeps me coming back every time I visit the Dallas/Fort Worth area.  
+The Hotel, it is new, clean, modern, with a salt water pool and a top notch grilling area.  The rooms are very spacious, with power outlets everywhere.  The lighting is bright, the beds are super comfortable, and with a large fridge &amp; microwave it makes long business stays so much easier.  The maid service is excellent as well, they clean my dirty dishes!!  
+The other employees in...I stayed at the Home2Suites in Late March of 2018, upon checkout at 430am with a flight to catch and an uber that decided to no-show, we were required to pack 2 cars of luggage, equipment and people into one minivan.  In the midst of the chaos my suitcase was left sitting outside next to the front door.  Upon discovery of the screw up, a quick call to Jeff at the front desk put me at ease with his confidence that they'd be happy to ship it to my next destination.  Later that morning the General Manager, Jeff Loudin (Two men both named Jeff), called me from the UPS store to go over pricing and options for shipping.  I was in a meeting at the time, he persisted after being sent to voicemail multiple times and waited there in the store for me to return his call.  That's what I call 5-Star service!!  Jeff Loudin provided the kind of service that keeps me coming back every time I visit the Dallas/Fort Worth area.  The Hotel, it is new, clean, modern, with a salt water pool and a top notch grilling area.  The rooms are very spacious, with power outlets everywhere.  The lighting is bright, the beds are super comfortable, and with a large fridge &amp; microwave it makes long business stays so much easier.  The maid service is excellent as well, they clean my dirty dishes!!  The other employees in my company love to be assigned to the Texas job simply for the hotel.  We often leave for work in the mornings as early as 415am.  The front desk always offers to make us to-go breakfast bags.  The physical hotel is very comfortable and inviting but it is the staff that makes this place feel like home away from home.  Almost every hotel employee gives me a smile and a "welcome back" when they see me for the first time of my stay.  I travel for work 3 weeks of every month to 13 different Metropolitan areas and can honestly say Texas is my favorite state and this hotel is the best to rest my head.  Jeff and his great staff are what makes this hotel my preferred destination for work.Thank You, Happy Travels, &amp; God Bless Texas!!R. ButlerMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the Home2Suites in Late March of 2018, upon checkout at 430am with a flight to catch and an uber that decided to no-show, we were required to pack 2 cars of luggage, equipment and people into one minivan.  In the midst of the chaos my suitcase was left sitting outside next to the front door.  Upon discovery of the screw up, a quick call to Jeff at the front desk put me at ease with his confidence that they'd be happy to ship it to my next destination.  Later that morning the General Manager, Jeff Loudin (Two men both named Jeff), called me from the UPS store to go over pricing and options for shipping.  I was in a meeting at the time, he persisted after being sent to voicemail multiple times and waited there in the store for me to return his call.  That's what I call 5-Star service!!  Jeff Loudin provided the kind of service that keeps me coming back every time I visit the Dallas/Fort Worth area.  
+The Hotel, it is new, clean, modern, with a salt water pool and a top notch grilling area.  The rooms are very spacious, with power outlets everywhere.  The lighting is bright, the beds are super comfortable, and with a large fridge &amp; microwave it makes long business stays so much easier.  The maid service is excellent as well, they clean my dirty dishes!!  
+The other employees in...I stayed at the Home2Suites in Late March of 2018, upon checkout at 430am with a flight to catch and an uber that decided to no-show, we were required to pack 2 cars of luggage, equipment and people into one minivan.  In the midst of the chaos my suitcase was left sitting outside next to the front door.  Upon discovery of the screw up, a quick call to Jeff at the front desk put me at ease with his confidence that they'd be happy to ship it to my next destination.  Later that morning the General Manager, Jeff Loudin (Two men both named Jeff), called me from the UPS store to go over pricing and options for shipping.  I was in a meeting at the time, he persisted after being sent to voicemail multiple times and waited there in the store for me to return his call.  That's what I call 5-Star service!!  Jeff Loudin provided the kind of service that keeps me coming back every time I visit the Dallas/Fort Worth area.  The Hotel, it is new, clean, modern, with a salt water pool and a top notch grilling area.  The rooms are very spacious, with power outlets everywhere.  The lighting is bright, the beds are super comfortable, and with a large fridge &amp; microwave it makes long business stays so much easier.  The maid service is excellent as well, they clean my dirty dishes!!  The other employees in my company love to be assigned to the Texas job simply for the hotel.  We often leave for work in the mornings as early as 415am.  The front desk always offers to make us to-go breakfast bags.  The physical hotel is very comfortable and inviting but it is the staff that makes this place feel like home away from home.  Almost every hotel employee gives me a smile and a "welcome back" when they see me for the first time of my stay.  I travel for work 3 weeks of every month to 13 different Metropolitan areas and can honestly say Texas is my favorite state and this hotel is the best to rest my head.  Jeff and his great staff are what makes this hotel my preferred destination for work.Thank You, Happy Travels, &amp; God Bless Texas!!R. ButlerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r594319025-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>594319025</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>LOVE this Brand</t>
+  </si>
+  <si>
+    <t>We have stayed at Home 2 Suites several times.  I LOVE this brand.  The rooms are clean, the beds are very comfortable and the sheets are amazing.  This particular hotel is close to family and we have stayed here several times. There are several restaurant options and is close to local attractions.  I LOVE THIS HOTEL and will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We have stayed at Home 2 Suites several times.  I LOVE this brand.  The rooms are clean, the beds are very comfortable and the sheets are amazing.  This particular hotel is close to family and we have stayed here several times. There are several restaurant options and is close to local attractions.  I LOVE THIS HOTEL and will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r593417358-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>593417358</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Trip with kids</t>
+  </si>
+  <si>
+    <t>My friend and I took our 5 kids to enjoy Ft Worth for a few days and see fireworks at the Concert in the Garden. We have stayed at homes 2 hotels together and this one matched our excellent experience at the previous hotels. Love the modern and comfortable feel of this hotel. I booked the same hotel for upcoming trips because I live the space it gives my kiddos and the kitchen is awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I took our 5 kids to enjoy Ft Worth for a few days and see fireworks at the Concert in the Garden. We have stayed at homes 2 hotels together and this one matched our excellent experience at the previous hotels. Love the modern and comfortable feel of this hotel. I booked the same hotel for upcoming trips because I live the space it gives my kiddos and the kitchen is awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r593195960-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>593195960</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>The hotel surpassed my expectations. It was very modern and clean. The room was quite big and very comfortable for my 4-night stay. The bed was comfy and the sheets spotless. I was impressed with their environmental efforts. The breakfast bar was perfect, everything was good quality, and the selection was nice. You can also ask for a cooktop and pots and pans, which I didn't use, but I'm sure it could be useful for some. There's a full-size fridge and a microwave in the room. I would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Daniel L, Guest Service Representative  at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>The hotel surpassed my expectations. It was very modern and clean. The room was quite big and very comfortable for my 4-night stay. The bed was comfy and the sheets spotless. I was impressed with their environmental efforts. The breakfast bar was perfect, everything was good quality, and the selection was nice. You can also ask for a cooktop and pots and pans, which I didn't use, but I'm sure it could be useful for some. There's a full-size fridge and a microwave in the room. I would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r592243599-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592243599</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>Hotel check in staff outstanding.  Housekeeping staff helpful and nice.  Breakfast area small and crowded(yes it was the weekend in summertime so is understandable). Best to grab something quick and run back to room. Dishes had been left in dishwasher from previous guest. Shower had hair left in it.  I don’t complain to staff, just take care if it myself.  Great bed and quiet on the first floor (my preference). Not enough seating and very loud in the indoor pool area. All in all was ok. MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Hotel check in staff outstanding.  Housekeeping staff helpful and nice.  Breakfast area small and crowded(yes it was the weekend in summertime so is understandable). Best to grab something quick and run back to room. Dishes had been left in dishwasher from previous guest. Shower had hair left in it.  I don’t complain to staff, just take care if it myself.  Great bed and quiet on the first floor (my preference). Not enough seating and very loud in the indoor pool area. All in all was ok. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r589361052-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>589361052</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Happy upon arrival</t>
+  </si>
+  <si>
+    <t>I needed a spacious, comfortable, clean, safe, quiet room for recovery from a surgery having traveled from out of state. I was nervous if it would be as nice as the photos appear. It was even better, pleasantly surprised. The value is great. Beds comfortable. The pool not impressive and disappointing, however, but not a huge deal. Needed more blankets and proper bed sheets. This is located perfectly behind a Super Target which was very convenient when the airline lost my luggage and I needed a lot of stuff! Also, 3 restaurants ON the property!! And a BEAUTIFUL arcade/bowling alley just behind the building!! Loved this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>I needed a spacious, comfortable, clean, safe, quiet room for recovery from a surgery having traveled from out of state. I was nervous if it would be as nice as the photos appear. It was even better, pleasantly surprised. The value is great. Beds comfortable. The pool not impressive and disappointing, however, but not a huge deal. Needed more blankets and proper bed sheets. This is located perfectly behind a Super Target which was very convenient when the airline lost my luggage and I needed a lot of stuff! Also, 3 restaurants ON the property!! And a BEAUTIFUL arcade/bowling alley just behind the building!! Loved this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r587846954-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>587846954</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  Great location.Family really liked staying here.Close to lots of restaurants and shopping.Nice breakfast options.Somewhat crowded during breakfast.Really like the outdoor seating areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  Great location.Family really liked staying here.Close to lots of restaurants and shopping.Nice breakfast options.Somewhat crowded during breakfast.Really like the outdoor seating areas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r586808592-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>12080746</t>
-  </si>
-  <si>
     <t>586808592</t>
   </si>
   <si>
@@ -174,46 +490,16 @@
     <t>Great property</t>
   </si>
   <si>
-    <t>First time to stay here and was pleasantly surprised. Entire property is clean and organized...room was spotless...in room kitchenette was very much a bonus. Comp breakfast was great with a nice selection.</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>ThomasTheBeachCat</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r563724007-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>563724007</t>
-  </si>
-  <si>
-    <t>03/02/2018</t>
-  </si>
-  <si>
-    <t>Absolutely Marvelous !</t>
-  </si>
-  <si>
-    <t>Home2 Suites was perfect in every way.  The entrance lobby is very modern and clean. We were greeted right away by a very nice and courteous front deck person. We were checked in and in our room in about 5 minutes! That was nice having come off a three and a half hour road trip.The room was extremely well appointed with modern furniture and appliances. This room is set up for a long stay if required. It has a nice sized refrigerator, microwave, sink with garbage disposal, plates, silverware, bowls, and on request they would bring you a cook top to use in your room.THE BED!  OMG, this was probably the most comfortable bed I have had to pleasure of sleeping on!  I simply did not want to get up in the morning.  The sheets were the softest I have ever slept between.  Everything was spotlessly clean.The bathroom and shower was just the right size and well stocked with everything you could need.Breakfast is included in your nightly rate and it is GREAT! Nicely presented as an extension to the main lobby, it is loaded with good coffee, milk, cereal (cold and warm), yogurt, toaster with choice of bread, English Muffin, bagel, waffle maker, fresh fruit, just about anything a person could want. Nice.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded March 30, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2018</t>
-  </si>
-  <si>
-    <t>Home2 Suites was perfect in every way.  The entrance lobby is very modern and clean. We were greeted right away by a very nice and courteous front deck person. We were checked in and in our room in about 5 minutes! That was nice having come off a three and a half hour road trip.The room was extremely well appointed with modern furniture and appliances. This room is set up for a long stay if required. It has a nice sized refrigerator, microwave, sink with garbage disposal, plates, silverware, bowls, and on request they would bring you a cook top to use in your room.THE BED!  OMG, this was probably the most comfortable bed I have had to pleasure of sleeping on!  I simply did not want to get up in the morning.  The sheets were the softest I have ever slept between.  Everything was spotlessly clean.The bathroom and shower was just the right size and well stocked with everything you could need.Breakfast is included in your nightly rate and it is GREAT! Nicely presented as an extension to the main lobby, it is loaded with good coffee, milk, cereal (cold and warm), yogurt, toaster with choice of bread, English Muffin, bagel, waffle maker, fresh fruit, just about anything a person could want. Nice.More</t>
+    <t>First time to stay here and was pleasantly surprised. Entire property is clean and organized...room was spotless...in room kitchenette was very much a bonus. Comp breakfast was great with a nice selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>First time to stay here and was pleasantly surprised. Entire property is clean and organized...room was spotless...in room kitchenette was very much a bonus. Comp breakfast was great with a nice selection.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r586643997-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -233,9 +519,6 @@
 We still enjoyed our stay and hope to stay...Very friendly staff! I watched one deal graciously with an upset customer with a smile on his face.Our room had a good sized fridge for our food. We had the ease of a continental breakfast that was by far one of the best we've ever had complete with oatmeal, waffles, yogurt, and several kinds of sandwiches. There wasn't much in the way of fresh fruit, which was disappointing.I like that Home2 had receptacles in the room for recycling and that the shampoo &amp; body wash are installed in the shower instead of tiny plastic bottles. The king bed was comfy as was the room temp considering it is the middle of June in Texas. My kids never once complained about the couch pull-out bed, which is saying something! Our only complaint was that our room wasn't ready when we got there at 6 p.m. We had the reservation for several weeks but according to the guy at the desk they weren't notified that there was a late check-out. We aren't impressed by poor communication skills between staff. It took an additional 20 minutes for our room to be ready.  When you've been in a car for 17 hours in a day and show up in the evening, your expectation is to be able to quickly be able to lie down in bed, not wait for cleaning to be finished. We still enjoyed our stay and hope to stay there again in the future MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Very friendly staff! I watched one deal graciously with an upset customer with a smile on his face.
 Our room had a good sized fridge for our food. We had the ease of a continental breakfast that was by far one of the best we've ever had complete with oatmeal, waffles, yogurt, and several kinds of sandwiches. There wasn't much in the way of fresh fruit, which was disappointing.
 I like that Home2 had receptacles in the room for recycling and that the shampoo &amp; body wash are installed in the shower instead of tiny plastic bottles. 
@@ -244,9 +527,6 @@
 We still enjoyed our stay and hope to stay...Very friendly staff! I watched one deal graciously with an upset customer with a smile on his face.Our room had a good sized fridge for our food. We had the ease of a continental breakfast that was by far one of the best we've ever had complete with oatmeal, waffles, yogurt, and several kinds of sandwiches. There wasn't much in the way of fresh fruit, which was disappointing.I like that Home2 had receptacles in the room for recycling and that the shampoo &amp; body wash are installed in the shower instead of tiny plastic bottles. The king bed was comfy as was the room temp considering it is the middle of June in Texas. My kids never once complained about the couch pull-out bed, which is saying something! Our only complaint was that our room wasn't ready when we got there at 6 p.m. We had the reservation for several weeks but according to the guy at the desk they weren't notified that there was a late check-out. We aren't impressed by poor communication skills between staff. It took an additional 20 minutes for our room to be ready.  When you've been in a car for 17 hours in a day and show up in the evening, your expectation is to be able to quickly be able to lie down in bed, not wait for cleaning to be finished. We still enjoyed our stay and hope to stay there again in the future More</t>
   </si>
   <si>
-    <t>borawski2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r583685471-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -262,19 +542,13 @@
     <t>We stayed at Home2 Suites as it is Hilton. We have also stayed at Hampton Suites as well. Service has always been excellent. That is why we always come back. We have never had any issues while staying at any Hilton owned places.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
   </si>
   <si>
     <t>We stayed at Home2 Suites as it is Hilton. We have also stayed at Hampton Suites as well. Service has always been excellent. That is why we always come back. We have never had any issues while staying at any Hilton owned places.More</t>
-  </si>
-  <si>
-    <t>RussellBee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r582310185-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -295,13 +569,10 @@
 Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of...I'm staying in the area for several months and have been trying all the local hotel sites in a similar price range.  This Home2 Suites is a new hotel.  I walked around whole hotel in my sock feet on the new carpet - like being at home. The full size fridge is nice and there is an entire wall of usable desk and work space.  The kitchenette is fully stocked with utensils - everything i could need.  The room feels open and larger than its actual size.   There are plenty of USB ports to save you from having to find your power brick. There is plenty of close parking.  The breakfasts are like a free run at the grab-n-go section at the local 7-11.  Grab a package of something, nuke it, and then eat.  There is a waffle maker and oatmeal as well.  I enjoyed the fresh fruit and yogurt to take with me on the run. I have had a lot better coffee but just my opinion.  I preferred the in-room coffee over what was available in the breakfast area.  Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of phone apps and settings and waiting for things to time out.  It can take over half an hour to get one connected like this.  The first week I asked the front desk and got no real info.  The second week (would be my last if this issue couldn't change) i asked the front desk and a manager happened to be around.  He gave me the phone number to the support desk of the company that manages the infrastructure for this hotel.  I expected no help but gave it a try.  I was VERY surprised to get a knowledgeable person who knew how to help. Remember this tip: If you travel with a device like an Echo or Fire Stick or other streaming device (without a screen to answer all the annoying questions) you call the support center and give them the MAC address of your device.  They can add it to a table that will NOT expire the entire length of your stay.  Whew!  Another odd thing about his hotel.  The Home2 Suites line seems to be the ugly sister of the Hilton chain.  It's hard to locate via the Hilton site and they only give HALF the usual number of Honors points for your stay.  Beware of this if you are saving up points for a future trip. All said I will stay here again.  They play with the rates constantly so if you get a high rate try again or book your stay further out.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
   </si>
   <si>
     <t>I'm staying in the area for several months and have been trying all the local hotel sites in a similar price range.  This Home2 Suites is a new hotel.  I walked around whole hotel in my sock feet on the new carpet - like being at home. 
@@ -310,7 +581,343 @@
 Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of...I'm staying in the area for several months and have been trying all the local hotel sites in a similar price range.  This Home2 Suites is a new hotel.  I walked around whole hotel in my sock feet on the new carpet - like being at home. The full size fridge is nice and there is an entire wall of usable desk and work space.  The kitchenette is fully stocked with utensils - everything i could need.  The room feels open and larger than its actual size.   There are plenty of USB ports to save you from having to find your power brick. There is plenty of close parking.  The breakfasts are like a free run at the grab-n-go section at the local 7-11.  Grab a package of something, nuke it, and then eat.  There is a waffle maker and oatmeal as well.  I enjoyed the fresh fruit and yogurt to take with me on the run. I have had a lot better coffee but just my opinion.  I preferred the in-room coffee over what was available in the breakfast area.  Now for some key info.  One thing that drove me crazy at this place the first week was having to reconnect all my Wi-Fi devices every 24 hours.  I travel with an Echo Dot for music, alarm clock, and talking with family back home. Getting one configured with a new Wi-Fi setup takes quite a while and juggling of phone apps and settings and waiting for things to time out.  It can take over half an hour to get one connected like this.  The first week I asked the front desk and got no real info.  The second week (would be my last if this issue couldn't change) i asked the front desk and a manager happened to be around.  He gave me the phone number to the support desk of the company that manages the infrastructure for this hotel.  I expected no help but gave it a try.  I was VERY surprised to get a knowledgeable person who knew how to help. Remember this tip: If you travel with a device like an Echo or Fire Stick or other streaming device (without a screen to answer all the annoying questions) you call the support center and give them the MAC address of your device.  They can add it to a table that will NOT expire the entire length of your stay.  Whew!  Another odd thing about his hotel.  The Home2 Suites line seems to be the ugly sister of the Hilton chain.  It's hard to locate via the Hilton site and they only give HALF the usual number of Honors points for your stay.  Beware of this if you are saving up points for a future trip. All said I will stay here again.  They play with the rates constantly so if you get a high rate try again or book your stay further out.More</t>
   </si>
   <si>
-    <t>tracy c</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r581787239-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>581787239</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Relaxing, great beds, clean rooms, spacious, helpful staff.</t>
+  </si>
+  <si>
+    <t>Great rooms, always clean, spacious and lots of counter space to spread out and get work done!  Each room has more counter space then you can imagine to allow for a productive business trip.  Hot coffee always in the lobby and staff are so helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great rooms, always clean, spacious and lots of counter space to spread out and get work done!  Each room has more counter space then you can imagine to allow for a productive business trip.  Hot coffee always in the lobby and staff are so helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r579115128-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>579115128</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Delayed charges</t>
+  </si>
+  <si>
+    <t>They have a complete mess with their AR because they carged me some of my hotel expenses one month later of my stay. I'm still trying to fix this issue and when I called to the Front Desk they could not give me a solution because the responsible of this was not there. This is not a good way to treat customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon W, General Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>They have a complete mess with their AR because they carged me some of my hotel expenses one month later of my stay. I'm still trying to fix this issue and when I called to the Front Desk they could not give me a solution because the responsible of this was not there. This is not a good way to treat customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r577652359-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>577652359</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay - Excellent property</t>
+  </si>
+  <si>
+    <t>I stayed on this hotel for 4 nights for official purpose. The rooms were sparkling clean. The hotel name reflects the stay. It was home away from home. Breakfast included, drop is offered. The staff were very friendly. The hotel is pretty clean.I would love to stay again on this hotel if I travel again on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>I stayed on this hotel for 4 nights for official purpose. The rooms were sparkling clean. The hotel name reflects the stay. It was home away from home. Breakfast included, drop is offered. The staff were very friendly. The hotel is pretty clean.I would love to stay again on this hotel if I travel again on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r576958054-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>576958054</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>I've found my new hotel for all my Ft Worth trips</t>
+  </si>
+  <si>
+    <t>The king suite here really rocked my socks! The full-size fridge, and doors... doors galore. Two doors to the bathroom, two doors to the bedroom. Two t.v.s, plenty of table and counter space. Great for one night or a long-term stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>The king suite here really rocked my socks! The full-size fridge, and doors... doors galore. Two doors to the bathroom, two doors to the bedroom. Two t.v.s, plenty of table and counter space. Great for one night or a long-term stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r573744387-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>573744387</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Happy Customer</t>
+  </si>
+  <si>
+    <t>I selected to stay here because it is pet friendly.  To my surprise, I couldn't even tell it was pet friendly because of the cleanliness of the entire building.  Wonderful customer service. Suites are gorgeousand space is huge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>I selected to stay here because it is pet friendly.  To my surprise, I couldn't even tell it was pet friendly because of the cleanliness of the entire building.  Wonderful customer service. Suites are gorgeousand space is huge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r572621837-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>572621837</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Okay for quick overnight</t>
+  </si>
+  <si>
+    <t>We stayed here overnight (checked in at 8pm/out at 7am). We liked the location of the hotel-close to lots of restaurants. We liked that the room had two queen beds and a pull-out bed as well-we had plenty of room. The bathroom was not as clean as I would have liked and the door didn’t close well, so you could see inside. Nice, big refrigerator, sink, mini-kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here overnight (checked in at 8pm/out at 7am). We liked the location of the hotel-close to lots of restaurants. We liked that the room had two queen beds and a pull-out bed as well-we had plenty of room. The bathroom was not as clean as I would have liked and the door didn’t close well, so you could see inside. Nice, big refrigerator, sink, mini-kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r570854669-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>570854669</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Weekend with the grandkids</t>
+  </si>
+  <si>
+    <t>The room was great and having a full size refrigerator was awesome because we had snacks to take to the zoo the next day and didn't have to get a bunch of ice. We had 4 grandbabies with us, ranging from 1 to 4 years old and had plenty of room. The only issue I had was with the push button on the sliding bathroom door being a little difficult to work a few times. The premade heat &amp; eat breakfast items are very good but only having 2 microwaves for heating proved to be a little bit of a challenge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>The room was great and having a full size refrigerator was awesome because we had snacks to take to the zoo the next day and didn't have to get a bunch of ice. We had 4 grandbabies with us, ranging from 1 to 4 years old and had plenty of room. The only issue I had was with the push button on the sliding bathroom door being a little difficult to work a few times. The premade heat &amp; eat breakfast items are very good but only having 2 microwaves for heating proved to be a little bit of a challenge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r569579336-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>569579336</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Dirty hotel</t>
+  </si>
+  <si>
+    <t>The hotel was nasty dirty. Lobby area windows dirty, elevator had nasty stuff splatters on wall and floors, trash over flowing, pool closed the whole time, patio area dirty(I had to clean it so my family could have dinner on patio.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Front Office Manager at Home2 Suites by Hilton Fort Worth Southwest Cityview, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was nasty dirty. Lobby area windows dirty, elevator had nasty stuff splatters on wall and floors, trash over flowing, pool closed the whole time, patio area dirty(I had to clean it so my family could have dinner on patio.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r569144688-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>569144688</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Eh!!!!</t>
+  </si>
+  <si>
+    <t>Tisheeka is incredible! Although my most recent stay was very dissatisfying, because of her I am considering keeping my business here. It was the worst stay I’ve had since I began booking here. Thank you for everything, Tisheeka!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Tisheeka is incredible! Although my most recent stay was very dissatisfying, because of her I am considering keeping my business here. It was the worst stay I’ve had since I began booking here. Thank you for everything, Tisheeka!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r567592631-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>567592631</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Spring break family stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel at the referral of a friend.  The room was very nice and very clean.  Everything was comfortable.  The pool was out of order, but we were too tired to care. The desk help was very friendly and accommodating. We got up and had breakfast in the morning.   Toastable items and cereal were available with some egg items you could microwave.   For some reason they turned the waffle iron off over an hour early and that made my kids unhappy.  Overall it was a very good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel at the referral of a friend.  The room was very nice and very clean.  Everything was comfortable.  The pool was out of order, but we were too tired to care. The desk help was very friendly and accommodating. We got up and had breakfast in the morning.   Toastable items and cereal were available with some egg items you could microwave.   For some reason they turned the waffle iron off over an hour early and that made my kids unhappy.  Overall it was a very good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r566177761-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>566177761</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>One of the most comfortable hotels I have stayed at.</t>
+  </si>
+  <si>
+    <t>The room was huge and very clean. It was the bed was the most comfortable beds I have ever slept in. The staff were very friendly. The food was very good. The indoor pool was great for my kids. I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was huge and very clean. It was the bed was the most comfortable beds I have ever slept in. The staff were very friendly. The food was very good. The indoor pool was great for my kids. I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r563724007-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>563724007</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Absolutely Marvelous !</t>
+  </si>
+  <si>
+    <t>Home2 Suites was perfect in every way.  The entrance lobby is very modern and clean. We were greeted right away by a very nice and courteous front deck person. We were checked in and in our room in about 5 minutes! That was nice having come off a three and a half hour road trip.The room was extremely well appointed with modern furniture and appliances. This room is set up for a long stay if required. It has a nice sized refrigerator, microwave, sink with garbage disposal, plates, silverware, bowls, and on request they would bring you a cook top to use in your room.THE BED!  OMG, this was probably the most comfortable bed I have had to pleasure of sleeping on!  I simply did not want to get up in the morning.  The sheets were the softest I have ever slept between.  Everything was spotlessly clean.The bathroom and shower was just the right size and well stocked with everything you could need.Breakfast is included in your nightly rate and it is GREAT! Nicely presented as an extension to the main lobby, it is loaded with good coffee, milk, cereal (cold and warm), yogurt, toaster with choice of bread, English Muffin, bagel, waffle maker, fresh fruit, just about anything a person could want. Nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Home2 Suites was perfect in every way.  The entrance lobby is very modern and clean. We were greeted right away by a very nice and courteous front deck person. We were checked in and in our room in about 5 minutes! That was nice having come off a three and a half hour road trip.The room was extremely well appointed with modern furniture and appliances. This room is set up for a long stay if required. It has a nice sized refrigerator, microwave, sink with garbage disposal, plates, silverware, bowls, and on request they would bring you a cook top to use in your room.THE BED!  OMG, this was probably the most comfortable bed I have had to pleasure of sleeping on!  I simply did not want to get up in the morning.  The sheets were the softest I have ever slept between.  Everything was spotlessly clean.The bathroom and shower was just the right size and well stocked with everything you could need.Breakfast is included in your nightly rate and it is GREAT! Nicely presented as an extension to the main lobby, it is loaded with good coffee, milk, cereal (cold and warm), yogurt, toaster with choice of bread, English Muffin, bagel, waffle maker, fresh fruit, just about anything a person could want. Nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r559125793-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>559125793</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Home2 Suites</t>
+  </si>
+  <si>
+    <t>Highly recommended this location. Near shopping center and the hotel experience is awesome. True enjoyed my stay and planning a return trip in the near future. Staff made was awesome and ensured my stay was enjoyable MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Highly recommended this location. Near shopping center and the hotel experience is awesome. True enjoyed my stay and planning a return trip in the near future. Staff made was awesome and ensured my stay was enjoyable More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r558091350-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558091350</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Our stay here was amazing! No complaints at all! Rooms are very spacious and clean! You can even have your own barbecue in the back patio while your kids swim! So pleasant! Staff was very friendly and speedy check in!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay here was amazing! No complaints at all! Rooms are very spacious and clean! You can even have your own barbecue in the back patio while your kids swim! So pleasant! Staff was very friendly and speedy check in!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r557244248-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>557244248</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Clean, Modern, Stream line</t>
+  </si>
+  <si>
+    <t>Clean hotel with a few restaurants close by but there is no restaurant on site like Hilton app says. Breakfast is minimal but overall nice hotel in a convenient location. Would stay in Hampton down the road next time because of breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean hotel with a few restaurants close by but there is no restaurant on site like Hilton app says. Breakfast is minimal but overall nice hotel in a convenient location. Would stay in Hampton down the road next time because of breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r556182263-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>556182263</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Will return here</t>
+  </si>
+  <si>
+    <t>Clean, quiet comfortable room. TV worked.  Bathroom was clean.  Only missing item was a wine bottle opener in the kitchen. Staff was helpful too. The only difficulty was seeing the hotel sign from the road.  Will definitely stay here again when I revisit the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, quiet comfortable room. TV worked.  Bathroom was clean.  Only missing item was a wine bottle opener in the kitchen. Staff was helpful too. The only difficulty was seeing the hotel sign from the road.  Will definitely stay here again when I revisit the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r551461798-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -334,9 +941,6 @@
     <t>This property is wonderful. My husband and I have stayed here twice. Both times the staff was friendly, helpful, professional, etc. Our trips are just for fun and we have only stayed overnight. The rooms are so well equipped we are thinking about taking a "real" vacation &amp; staying a weekMore</t>
   </si>
   <si>
-    <t>davidpD4844QJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r550587574-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -358,9 +962,6 @@
     <t>Excellent, clean, large rooms close to family. We were part of overflow family visiting family over Christmas near Hulen Mall. Extremely convenient location. Hotel not too big so as to be inconvient. But we pretty much only slept there, arriving late Christmas Eve and checking out early Christmas Day, and we didn't really use the facilities, so cannot opine on rest of girl.More</t>
   </si>
   <si>
-    <t>Dinah M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r549884272-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -379,9 +980,6 @@
     <t>Stayed at Home2 by Hilton in Fort Worth Cityview over Christmas.  Room was excellent, clean, bed so comfortable.  Staff was friendly.  Would certainly recommend it!  We did not eat breakfast there but it looked good.More</t>
   </si>
   <si>
-    <t>jeffrybradys</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r549648279-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -397,15 +995,9 @@
     <t>A very outstanding visit in a great hotel. The staff is very professional. The hotel made made the trip for the Armed Forces Bowl a great trip. The location of the hotel is also great with many other activities or places to go really close.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>A very outstanding visit in a great hotel. The staff is very professional. The hotel made made the trip for the Armed Forces Bowl a great trip. The location of the hotel is also great with many other activities or places to go really close.More</t>
   </si>
   <si>
-    <t>Mark N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r548611130-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -424,9 +1016,6 @@
     <t>I spent one night at the Home 2 Suites in Fort Worth.  The hotel is located in a kind of weird location, next to a large strip mall and a couple of restaurants.  There is a small, but functional gym and the free breakfast was above average for this kind of hotel.  The rooms are a little loud, I could hear every noise from the room above me.More</t>
   </si>
   <si>
-    <t>jessicalS2430DV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r546752674-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -445,9 +1034,6 @@
     <t>Great job the staff was so sweet and accommodating thank you for working great as a team! We will definitely be back when visiting family in Texas! Thank you for such a wonderful experience.  We will be booking with the same hotel for our family trips in the future. We loved the breakfast selection and the ability to use and reuse the dishes in our suite. I have no complaints and enjoyed the stay now the kids are always wanting to stay at the same hotel.More</t>
   </si>
   <si>
-    <t>samuelh201</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r546298987-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -466,9 +1052,6 @@
     <t>A co-worker suggested HOME2 suites.  The room was a king size studio.  Comfortable bed, nice desk with lots of space, good wifi, quiet room.  2 cups of coffee in room.  I liked the complimentary breakfast.  The mirning of check out I was late and the microwave type breakfast sandwich and yogurt to go was perfect to eat in car.  I will use the gym next time it looked nice.More</t>
   </si>
   <si>
-    <t>jpoehlein</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r545190357-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -487,9 +1070,6 @@
     <t>We stayed here only one night, however we will be keeping an eye out for this hotel in other areas as well. Families would enjoy staying here since there is a nice size kitchen area and the rooms are a nice size.More</t>
   </si>
   <si>
-    <t>ethantf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r543741174-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -508,9 +1088,6 @@
     <t>The  lobby looked great upon arrival.  I got to my room and everything seemed okay.  Went on my routine hotel check, as I stay in hotels quite a large amount of time per year, and noticed the toilet seat had liquid residue covering the entire seat.  I'm not sure if it was cleaning product or bodily fluid but it was all over the toilet seat so I had to clean that off before using it.  The shower had a few strands of long hair on the walls so obviously the shower hadn't been cleaned very well either.  The bathroom just seemed a little thrown together to look clean...   The floors and walls were very thin at this location.  I could hear the people above me walking which is why I always request a top floor but wasn't given one this time.  I could also hear the television in the room next to me at night.    One main problem I had was there was a car show in the parking lot behind the hotel which caused a large amount of people and noise, not the hotels fault.  However, we had to search for a parking spot at the hotel for quite some time before finding one because of people parking there that weren't staying and many trucks with trailers parked in multiple parking spots.  Your hotel guests shouldn't have to worry about finding parking.  I told the front desk receptionist and...The  lobby looked great upon arrival.  I got to my room and everything seemed okay.  Went on my routine hotel check, as I stay in hotels quite a large amount of time per year, and noticed the toilet seat had liquid residue covering the entire seat.  I'm not sure if it was cleaning product or bodily fluid but it was all over the toilet seat so I had to clean that off before using it.  The shower had a few strands of long hair on the walls so obviously the shower hadn't been cleaned very well either.  The bathroom just seemed a little thrown together to look clean...   The floors and walls were very thin at this location.  I could hear the people above me walking which is why I always request a top floor but wasn't given one this time.  I could also hear the television in the room next to me at night.    One main problem I had was there was a car show in the parking lot behind the hotel which caused a large amount of people and noise, not the hotels fault.  However, we had to search for a parking spot at the hotel for quite some time before finding one because of people parking there that weren't staying and many trucks with trailers parked in multiple parking spots.  Your hotel guests shouldn't have to worry about finding parking.  I told the front desk receptionist and she was very unapologetic and said "there's nothing I can do about it'.  That as well as the noise that happened until 12:30 at night wasn't very pleasant.  I will stay at a different hotel when in this area.      Other areas are fine and I do like the Home2 Brand so I will stay in the other areas I travel to with work. This was just a terrible 4 nights at this property.More</t>
   </si>
   <si>
-    <t>elizabeth b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r540839901-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -529,9 +1106,6 @@
     <t>This hotel was new and clean for the most part. Unfortunately, the first impression was only skin deep. The pillows in the room were years old. My room was not serviced once during my two day stay, and the breakfast is simply the worst I've experienced in hundreds of hotels around the world.More</t>
   </si>
   <si>
-    <t>keg198</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r540492284-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,9 +1124,6 @@
     <t>This was my first stay at a Home2. It was very nice and comfortable. The rooms are extremely spacious and comfortable. It makes being away from home nice. The breakfast is excellent. It's quite the selection compared to some of the hotels I've stayed at. Staff was friendly and the workout facility is adequate. I recommend staying here.More</t>
   </si>
   <si>
-    <t>Crawfish Boil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r539699582-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -571,9 +1142,6 @@
     <t>We were impressed by the room layout. The bed was very good but the AC was a little loud.The breakfast was tasty and the lobby was comfortable. The hotel was clean. It's located off I-20 in a confusing maze of streets and highways.Bring your GPS! Overall this hotel is a very good value and we would stay here again.More</t>
   </si>
   <si>
-    <t>O3249VUkarenf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r537526042-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -595,9 +1163,6 @@
     <t>Was in town for a funeral and the staff was very understanding and thoughtful. Would definitely stay again should I be in town again. Breakfast was like being at an IHOP or Denny’s if not better. Had separate sitting area plus kitchenette plus a huge bathroom that was very accommodating for my wheelchair. Thought for all the amenities I would be paying more but the price was great. My only complaint is that the beds are not very comfortable, too hard for my back so I asked for extra pillows and used them to prop myself into an ergonomic position which helped a lot. Will definitely use this chain again in the future!More</t>
   </si>
   <si>
-    <t>lisaaL9816XS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r537550835-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -613,9 +1178,6 @@
     <t>Front desk clerk was very rude upon arrival as well as departure.  Was given no information upon arrival.  Just handed keys and given a blank stare.  Upon departure never said thanks for staying, was everything ok, etc.  Poor customer service.  Otherwise the stay and the hotel accomodations were very nice. Location was excellent to places to eat and things to do.More</t>
   </si>
   <si>
-    <t>792judya</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r535826627-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -634,9 +1196,6 @@
     <t>The Fort Worth Home 2 was a big disappointment in that it was not up to standard in every way.  The property is only 6 months old and looked 10 years.  It was noisy, kids running wild, breakfast room had sour food, creamer in room was out of date by a month, front desk employees were sloppy looking and acting.More</t>
   </si>
   <si>
-    <t>jimmyp846</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533897705-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -655,9 +1214,6 @@
     <t>Love the layout and outdoor seating. Breakfast was great just not a lot of seating when busy. Young kids seem to have a run at the breakfast bar as some didn’t have parents making them behave but that was just my trip.  It’s a great place none the lessMore</t>
   </si>
   <si>
-    <t>SamandMiranda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533611022-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -676,9 +1232,6 @@
     <t>I needed a place to stay for a few hours and was able to check in at 6:00am and out at Noon with no issues. The room was clean and the staff was super helpful. It was also the red river shootout weekend and finding a place was crazy... glad I found this one though!More</t>
   </si>
   <si>
-    <t>sharonwL2327OQ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r533009026-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -697,9 +1250,6 @@
     <t>This was an excellent choice.  Very clean, smelled clean, the bed was very comfortable. All the shopping amenities were in 5 miles and yet was close distance of my family. I really like This hotel, and will pick it againMore</t>
   </si>
   <si>
-    <t>Badgelady</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532900641-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -715,9 +1265,6 @@
     <t>We usually stay at Hampton Inn, but decided to try this new Hilton brand.  Located close to TCU and  restaurants and very clean.  Lobby hallways and rooms had a fresh smell every day..all day.  Room was large with microwave, large fridge, flat screen tv but small bathroom with shower and fluffy towels. Bath gel and shampoo were on dispensers in shower to save on throwing the little plastic bottles in the trash.  Real downside was the breakfast and the coffee.  At Hampton there are hot items such as bacon,  ham or sausage and eggs.  At Home2 there was oatmeal and toast, bagels, and waffles.  Breakfast sandwiches were prepackaged for the microwave.    Perhaps the biggest negative for me was the coffee.  Instead of offering a robust and a weaker regular choice, there was hot water, decaf, and a VERY weak  regular coffee...so weak that we passed on coffee after tasting it. Hotel staff was very friendly and professional but we will likely go to Hampton next visit More</t>
   </si>
   <si>
-    <t>vett20</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532179995-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -736,9 +1283,6 @@
     <t>Really felt like home and it was very close to college and eateries. Very reasonable and comfortable.As a mother of two it was very safe. The breakfast was very healthy and I really enjoyed it and so did my sons!More</t>
   </si>
   <si>
-    <t>Mlhpuck222</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r532237616-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -754,9 +1298,6 @@
     <t>We stayed for 2 nights at Home2Suites in Ft. Worth.  The staff was extremely helpful in helping us secure a room after leaving another hotel which was dirty and dingy and irritating my eyes.  Accommodations here are very comfortable and clean.  Very nice breakfast!  Friendly staff!  Would definitely book again!More</t>
   </si>
   <si>
-    <t>E2441UYjamesb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r530688988-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -778,9 +1319,6 @@
     <t>One of the best hotels i've stayed in. I love this brand, Home 2 Suites. I will always look for a Home 2 Suites when book a hotel room anywhere. Chris, the young lady at the front desk, was such a pleasant person to deal with. The rooms were so comfortable, we felt at home in the hotel.More</t>
   </si>
   <si>
-    <t>brandonj466</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r530030953-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -799,9 +1337,6 @@
     <t>Nasty rooms. Poor house keeping. Even one employee told me to go to the front desk for sheets because they don't change the sheets. Customer service was horrible. I will never stay at this home2 suites again.More</t>
   </si>
   <si>
-    <t>Kristin M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r529195752-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -820,9 +1355,6 @@
     <t>Really nice hotel with super friendly staff!  The rooms have a very large fridge and freezer plus a microwave and dishwasher.  Breakfast is served each morning. There are biscuits and gravy on the weekends and they are amazing!!  There's a Fudruckers and Twin Peaks next door in walking distance.  Would stay again.  More</t>
   </si>
   <si>
-    <t>Kathy Darlene P... B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r529341246-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -838,7 +1370,184 @@
     <t>I was so surprised on the size of the suite. There was so much counter space which was great for my work project. The towels were super soft and the bed was perfect. Lounging on the coach vs a chair or the bed was an added bonus.More</t>
   </si>
   <si>
-    <t>692leroyb</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r527915894-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>527915894</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>No Working Phone, Dirty Hallway</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  It is not clean in the hallways when I was there. I expected the hotel to be clean, just due to age. There is housekeeping on the weekends if you request it. We did request, however, the message was not relayed from Bernard to whoever makes that happen. The phones (there were 2 in our room) were not working, therefore we could not call down to the front desk, we walked to the front desk to request housekeeping and phone repair. We did not have the room cleaned, or the phones repaired, as there was no maintenance available on the weekend. Long Story short, if you are there on the weekend, do not expect much.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  It is not clean in the hallways when I was there. I expected the hotel to be clean, just due to age. There is housekeeping on the weekends if you request it. We did request, however, the message was not relayed from Bernard to whoever makes that happen. The phones (there were 2 in our room) were not working, therefore we could not call down to the front desk, we walked to the front desk to request housekeeping and phone repair. We did not have the room cleaned, or the phones repaired, as there was no maintenance available on the weekend. Long Story short, if you are there on the weekend, do not expect much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r526446653-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>526446653</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, great location, very clean.  Hotel staff is very attentive and responsive.  Good location to TCU.  Rooms are kept clean and comfortable.  Check in and out was seamless.  Amenities are good.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay, great location, very clean.  Hotel staff is very attentive and responsive.  Good location to TCU.  Rooms are kept clean and comfortable.  Check in and out was seamless.  Amenities are good.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r525264432-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>525264432</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>As good as it gets!</t>
+  </si>
+  <si>
+    <t>From check in to checkout, the staff at front desk was outstanding and the breakfast options, fitness area and room were very nice and clean.  Very nice staff members throughtout.  Maid service also was excellent, plus the nice size fridge was great for my wine and water bottles.MoreShow less</t>
+  </si>
+  <si>
+    <t>From check in to checkout, the staff at front desk was outstanding and the breakfast options, fitness area and room were very nice and clean.  Very nice staff members throughtout.  Maid service also was excellent, plus the nice size fridge was great for my wine and water bottles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r522435566-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>522435566</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>This was our fist introduction to the Home2Suites brand of Hilton.  I was leery at First making the reservation but wondered how bad could a Hilton property be.  Plus we only needed a stay over as we were going on a cruise the next day.  It was a pleasant surprise.  Clean. Professional representatives.  Modern atmosphere. Free WiFi.  Free newspaper. On-site pool that wet were able to use although our room wasn't ready. Rooms were spacious.  Nice assortment for the free breakfast. Works definitely try this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This was our fist introduction to the Home2Suites brand of Hilton.  I was leery at First making the reservation but wondered how bad could a Hilton property be.  Plus we only needed a stay over as we were going on a cruise the next day.  It was a pleasant surprise.  Clean. Professional representatives.  Modern atmosphere. Free WiFi.  Free newspaper. On-site pool that wet were able to use although our room wasn't ready. Rooms were spacious.  Nice assortment for the free breakfast. Works definitely try this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r521914707-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>521914707</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>I loved being at this hotel. The set up of the suite was not like any other Hilton brand I've visit. I always have the best visits, and this one didn't fall short. I hosted a girls day out for my 5 year old and her 3 friends and they had a blast! They enjoyed breakfast, although not what we expected having visited other hotels prior, but it was good nonetheless! Great job, Staff @ Home2 Suites City! Thank you!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved being at this hotel. The set up of the suite was not like any other Hilton brand I've visit. I always have the best visits, and this one didn't fall short. I hosted a girls day out for my 5 year old and her 3 friends and they had a blast! They enjoyed breakfast, although not what we expected having visited other hotels prior, but it was good nonetheless! Great job, Staff @ Home2 Suites City! Thank you!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r515258254-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515258254</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Room occupied?</t>
+  </si>
+  <si>
+    <t>When we arrived the room we checked in for on line was not ready so desk transferred to another room. However the room was not cleaned and was still occupied. After transferring to a third room, the electronic key was never updated and wifi was registered to the wrong room. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>When we arrived the room we checked in for on line was not ready so desk transferred to another room. However the room was not cleaned and was still occupied. After transferring to a third room, the electronic key was never updated and wifi was registered to the wrong room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r515028113-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515028113</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Best room ever!</t>
+  </si>
+  <si>
+    <t>We stayed one night. When we walked in the room, I was thrilled! Fully stocked kitchen cabinets, a flat screen and wonderful roomy space! I wish we could have spent more time here! Bed was very comfortable. Breakfast was good too! Check in was a breeze! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night. When we walked in the room, I was thrilled! Fully stocked kitchen cabinets, a flat screen and wonderful roomy space! I wish we could have spent more time here! Bed was very comfortable. Breakfast was good too! Check in was a breeze! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r515066285-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515066285</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>Had an amazing stay and experience. The hotel was clean and the staff was so helpful and friendly. Our 2 night stay turned into a 4 night stay due to a family member being admitted into the hospital. The staff was understanding, empathetic, kind and went above and beyond to help make a scary situation better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had an amazing stay and experience. The hotel was clean and the staff was so helpful and friendly. Our 2 night stay turned into a 4 night stay due to a family member being admitted into the hospital. The staff was understanding, empathetic, kind and went above and beyond to help make a scary situation better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r515065840-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515065840</t>
+  </si>
+  <si>
+    <t>Definite stay again</t>
+  </si>
+  <si>
+    <t>This property is in a great location, and central to shopping and dining.  The manager was extremely courteous.  The room and lobby were very clean.  The parking lot is well lit.  Will definitely stay here again in Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is in a great location, and central to shopping and dining.  The manager was extremely courteous.  The room and lobby were very clean.  The parking lot is well lit.  Will definitely stay here again in Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r509512490-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>509512490</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent rooms and amenities</t>
+  </si>
+  <si>
+    <t>This is the place to stay if you're going to be staying more than a night. Everything you need to save from eating out.  Great location if you do want to go out or need to pick up something. 10 minutes from downtown.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the place to stay if you're going to be staying more than a night. Everything you need to save from eating out.  Great location if you do want to go out or need to pick up something. 10 minutes from downtown.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r508915595-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
@@ -856,15 +1565,9 @@
     <t>bathroom not working - minimal very limited breakfast options and even they were not refilled.   Breakfast area not clean.  Poor choice for Hilton to put there name on this building.  These Hilton2Suites are very low end and I will not use them again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>bathroom not working - minimal very limited breakfast options and even they were not refilled.   Breakfast area not clean.  Poor choice for Hilton to put there name on this building.  These Hilton2Suites are very low end and I will not use them again.More</t>
   </si>
   <si>
-    <t>SHANNON N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r507070738-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -883,9 +1586,6 @@
     <t>We needed a hotel that would accommodate a family of 6 (2 parents and 4 teenagers) for around $150 per night. This one was perfect.  The location was good. Plenty of restaurants and shopping nearby. Room was very clean and comfortable. More</t>
   </si>
   <si>
-    <t>joy w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r506636720-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -904,9 +1604,6 @@
     <t>Nice location mall in walking distance main events restaurants off highway close to everything. Pool and laundry together indoor. Cold. Clean rooms are spacious. Okay staff. It was a one day stay. Breakfast was okay. Limited selections.More</t>
   </si>
   <si>
-    <t>Travelgrl4daysaweek</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r506432837-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -922,9 +1619,6 @@
     <t>Clean, luxurious and comfortable bed, great coffee! I love the kitchen! As a vegan I can go to a grocery store like Whole Foods and get healthy foods to eat while I'm working instead of having to depend on fast food. More</t>
   </si>
   <si>
-    <t>normapabon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r505907309-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1635,168 @@
   </si>
   <si>
     <t>They were flexible with me, as I arrived earlier than there check in time.  Also, pool was not available so they deducted amount.  My daughter and I felt at home.  Near all the stores and highways.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r505344605-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>505344605</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Home2 Cityview</t>
+  </si>
+  <si>
+    <t>New Hotel, very clean and modern in a good location. The staff was very friendly and helpful and the decor very attractive.  The suites offer a full size refrigerator, dishwasher, and a microwave oven complete with dishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>New Hotel, very clean and modern in a good location. The staff was very friendly and helpful and the decor very attractive.  The suites offer a full size refrigerator, dishwasher, and a microwave oven complete with dishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r504953776-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504953776</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was clean, very modern look, great location, breakfast was ok, lots of frozen food that need to be microwave. Bed was comfortable, ametinities of the hotel were good. will definitely stay here again. Good value for the money. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was clean, very modern look, great location, breakfast was ok, lots of frozen food that need to be microwave. Bed was comfortable, ametinities of the hotel were good. will definitely stay here again. Good value for the money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r504629447-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504629447</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Amazing hotel!!</t>
+  </si>
+  <si>
+    <t>I am from the Odessa area and had to make a trip to Ft Worth for my sons drs appt and we only planned on staying 2 nights but the hotel was so amazing we stayed an extra night. We will definitely be recommending this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>I am from the Odessa area and had to make a trip to Ft Worth for my sons drs appt and we only planned on staying 2 nights but the hotel was so amazing we stayed an extra night. We will definitely be recommending this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r504333253-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504333253</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>I expected more from a new property in this franchise</t>
+  </si>
+  <si>
+    <t>This hotel is new, and be careful - your GPS or mapping app might not get you here. I had to use the Fuddruckers next door to navigate myself back to this property during my stay. The place looks gorgeous inside and out. It's new and it shows. There were a few minor things in the room, like water stains on the paint outside the shower, screw-heads pushing through the wallpaper in the bathroom, and other minor details. Other than that, it seriously looks brand new. I checked in after 10PM, and the night clerk wasn't very friendly. She explained that she was sorry that my Hilton Honors account wasn't attached to my room, but someone else would have to deal with it, as "it's late and I don't remember how". The bed was comfortable, the pillows were sparse, but clean and comfortable as well. There was a complete setup for the fold-out couch, which was handy. Everything was nice and new in the room. There is ample storage, plenty of cabinets, shelves and drawers to put things. The shower-mounted soap and shampoo dispensers are nice, and probably save the chain a ton of money. The free breakfast wasn't very good, and left me nauseated most days. Microwaveable pouches of some kind of egg material just didn't sit right. Now here comes the fun part. While at this hotel, the pool was out of service, so that can't be ranked....This hotel is new, and be careful - your GPS or mapping app might not get you here. I had to use the Fuddruckers next door to navigate myself back to this property during my stay. The place looks gorgeous inside and out. It's new and it shows. There were a few minor things in the room, like water stains on the paint outside the shower, screw-heads pushing through the wallpaper in the bathroom, and other minor details. Other than that, it seriously looks brand new. I checked in after 10PM, and the night clerk wasn't very friendly. She explained that she was sorry that my Hilton Honors account wasn't attached to my room, but someone else would have to deal with it, as "it's late and I don't remember how". The bed was comfortable, the pillows were sparse, but clean and comfortable as well. There was a complete setup for the fold-out couch, which was handy. Everything was nice and new in the room. There is ample storage, plenty of cabinets, shelves and drawers to put things. The shower-mounted soap and shampoo dispensers are nice, and probably save the chain a ton of money. The free breakfast wasn't very good, and left me nauseated most days. Microwaveable pouches of some kind of egg material just didn't sit right. Now here comes the fun part. While at this hotel, the pool was out of service, so that can't be ranked. But from outside, it looked nice. The hotel has a book in each room, and inside the book all hotel policies are explained. Check-out is NOON, per the in-room book. At seven, I asked for a late checkout. At ten, my wife tried to confirm our late checkout, and the front desk clerk explained that they don't do that at this property. At eleven, they knocked on our door, to see if we were still there. At eleven fifteen, they called the room to see if we decided to stay another night. At eleven thirty, we left, and they said they'd be charging me another night for staying too late. The battle continues, but your mileage may vary. This hotel is very nice, and I'm sure in due time it'll be four star worthy.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is new, and be careful - your GPS or mapping app might not get you here. I had to use the Fuddruckers next door to navigate myself back to this property during my stay. The place looks gorgeous inside and out. It's new and it shows. There were a few minor things in the room, like water stains on the paint outside the shower, screw-heads pushing through the wallpaper in the bathroom, and other minor details. Other than that, it seriously looks brand new. I checked in after 10PM, and the night clerk wasn't very friendly. She explained that she was sorry that my Hilton Honors account wasn't attached to my room, but someone else would have to deal with it, as "it's late and I don't remember how". The bed was comfortable, the pillows were sparse, but clean and comfortable as well. There was a complete setup for the fold-out couch, which was handy. Everything was nice and new in the room. There is ample storage, plenty of cabinets, shelves and drawers to put things. The shower-mounted soap and shampoo dispensers are nice, and probably save the chain a ton of money. The free breakfast wasn't very good, and left me nauseated most days. Microwaveable pouches of some kind of egg material just didn't sit right. Now here comes the fun part. While at this hotel, the pool was out of service, so that can't be ranked....This hotel is new, and be careful - your GPS or mapping app might not get you here. I had to use the Fuddruckers next door to navigate myself back to this property during my stay. The place looks gorgeous inside and out. It's new and it shows. There were a few minor things in the room, like water stains on the paint outside the shower, screw-heads pushing through the wallpaper in the bathroom, and other minor details. Other than that, it seriously looks brand new. I checked in after 10PM, and the night clerk wasn't very friendly. She explained that she was sorry that my Hilton Honors account wasn't attached to my room, but someone else would have to deal with it, as "it's late and I don't remember how". The bed was comfortable, the pillows were sparse, but clean and comfortable as well. There was a complete setup for the fold-out couch, which was handy. Everything was nice and new in the room. There is ample storage, plenty of cabinets, shelves and drawers to put things. The shower-mounted soap and shampoo dispensers are nice, and probably save the chain a ton of money. The free breakfast wasn't very good, and left me nauseated most days. Microwaveable pouches of some kind of egg material just didn't sit right. Now here comes the fun part. While at this hotel, the pool was out of service, so that can't be ranked. But from outside, it looked nice. The hotel has a book in each room, and inside the book all hotel policies are explained. Check-out is NOON, per the in-room book. At seven, I asked for a late checkout. At ten, my wife tried to confirm our late checkout, and the front desk clerk explained that they don't do that at this property. At eleven, they knocked on our door, to see if we were still there. At eleven fifteen, they called the room to see if we decided to stay another night. At eleven thirty, we left, and they said they'd be charging me another night for staying too late. The battle continues, but your mileage may vary. This hotel is very nice, and I'm sure in due time it'll be four star worthy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r496508717-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496508717</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Clean, nice staff and eco friendly</t>
+  </si>
+  <si>
+    <t>Staying at this hotel during college orientation for our son. The simple, clean and eco friendly design is great. Hotel has only been open two weeks so they are still fixing glitches and waiting to get indoor pool inspected. I like that the hotel is eco friendly from the carpet to the sheets. Full kitchen with fridge and dishwasher, pull out dining table and lots of desk space. Bathroom only has a shower and is very small though. Close to restaurants and stores. About 8 minutes from TCU driving. Pet friendly tooMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Staying at this hotel during college orientation for our son. The simple, clean and eco friendly design is great. Hotel has only been open two weeks so they are still fixing glitches and waiting to get indoor pool inspected. I like that the hotel is eco friendly from the carpet to the sheets. Full kitchen with fridge and dishwasher, pull out dining table and lots of desk space. Bathroom only has a shower and is very small though. Close to restaurants and stores. About 8 minutes from TCU driving. Pet friendly tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r496734609-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496734609</t>
+  </si>
+  <si>
+    <t>Great place with good service</t>
+  </si>
+  <si>
+    <t>I am relocation from The Netherlands to Texas. Needed a place to stay for a few nights. I did not initially book Home2 because I had never heard of it, and not even sure it was listed on my favorite site; Bookings.com. After a few nights at a nearby hotel I needed to extend my stay, and they had no room. The Home2 was just down the street and I had passed it several times. So I moved there. Wish I had stayed here the entire time. The rooms are incredible and have everything you need, from Fridge and microwave to a nice TV and very nice bed. After several years of European hotels, I LOVED the size of the room. The staff were very friendly. The breakfast was good BUT you have to choose something to put in the microwave. It was good, and the instructions were clear. Pool was nice, exercise room very nice. Laundry room as a bonus. I did not use it, but having it was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am relocation from The Netherlands to Texas. Needed a place to stay for a few nights. I did not initially book Home2 because I had never heard of it, and not even sure it was listed on my favorite site; Bookings.com. After a few nights at a nearby hotel I needed to extend my stay, and they had no room. The Home2 was just down the street and I had passed it several times. So I moved there. Wish I had stayed here the entire time. The rooms are incredible and have everything you need, from Fridge and microwave to a nice TV and very nice bed. After several years of European hotels, I LOVED the size of the room. The staff were very friendly. The breakfast was good BUT you have to choose something to put in the microwave. It was good, and the instructions were clear. Pool was nice, exercise room very nice. Laundry room as a bonus. I did not use it, but having it was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r496362712-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496362712</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Always exceptional</t>
+  </si>
+  <si>
+    <t>This is my second time staying at a Home 2 Suites location. I am blown away at how helpful and accommodating each and every member of the staff is ALL THE TIME.  When the hostess Ti found out that we were traveling due to family illness, she made it a point to check in with us if we needed anything, assist with fee concerns, and showed genuine care each day.  Plus, the rooms are spacious, always clean, AND THOSE SHEETS - FABULOUS!!! Thank you for your consistent attention to comfort and detail. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my second time staying at a Home 2 Suites location. I am blown away at how helpful and accommodating each and every member of the staff is ALL THE TIME.  When the hostess Ti found out that we were traveling due to family illness, she made it a point to check in with us if we needed anything, assist with fee concerns, and showed genuine care each day.  Plus, the rooms are spacious, always clean, AND THOSE SHEETS - FABULOUS!!! Thank you for your consistent attention to comfort and detail. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r496040053-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496040053</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Brand new suites</t>
+  </si>
+  <si>
+    <t>Stayed in this brand new hotel on a family trip. We loved the design of the room with modern full size appliances (better than ours at home) and lots of counter space. The outlets throughout the room had USB ports in addition to the normal outlets which helped with charging all of our devices. The hotel had wonderful modern decor and was conveniently located to many restaurants and great shopping. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in this brand new hotel on a family trip. We loved the design of the room with modern full size appliances (better than ours at home) and lots of counter space. The outlets throughout the room had USB ports in addition to the normal outlets which helped with charging all of our devices. The hotel had wonderful modern decor and was conveniently located to many restaurants and great shopping. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12080746-r494448209-Home2_Suites_by_Hilton_Fort_Worth_Southwest_Cityview-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>494448209</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Family weekend</t>
+  </si>
+  <si>
+    <t>Stayed here for a family reunion.  Excellent location. Very beautiful hotel. Meets our needs. Close to shopping, eating, entertainment and a great value.  I would recommend this to a family looking for all the above.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a family reunion.  Excellent location. Very beautiful hotel. Meets our needs. Close to shopping, eating, entertainment and a great value.  I would recommend this to a family looking for all the above.More</t>
   </si>
 </sst>
 </file>
@@ -1445,64 +2301,46 @@
       <c r="A2" t="n">
         <v>66009</v>
       </c>
-      <c r="B2" t="n">
-        <v>3788</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1516,56 +2354,50 @@
       <c r="A3" t="n">
         <v>66009</v>
       </c>
-      <c r="B3" t="n">
-        <v>156709</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1574,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1593,37 +2425,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1637,54 +2469,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66009</v>
       </c>
-      <c r="B5" t="n">
-        <v>156710</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1705,200 +2533,180 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66009</v>
       </c>
-      <c r="B6" t="n">
-        <v>156711</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66009</v>
       </c>
-      <c r="B7" t="n">
-        <v>156712</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>63</v>
-      </c>
-      <c r="X7" t="s">
-        <v>64</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66009</v>
       </c>
-      <c r="B8" t="n">
-        <v>156713</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -1911,148 +2719,122 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X8" t="s">
-        <v>64</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66009</v>
       </c>
-      <c r="B9" t="n">
-        <v>1631</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66009</v>
       </c>
-      <c r="B10" t="n">
-        <v>156714</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
         <v>5</v>
       </c>
@@ -2066,130 +2848,124 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" t="s">
-        <v>64</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66009</v>
       </c>
-      <c r="B11" t="n">
-        <v>6644</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="X11" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66009</v>
       </c>
-      <c r="B12" t="n">
-        <v>156715</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2211,60 +2987,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66009</v>
       </c>
-      <c r="B13" t="n">
-        <v>156716</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2286,288 +3058,266 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66009</v>
       </c>
-      <c r="B14" t="n">
-        <v>156717</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66009</v>
       </c>
-      <c r="B15" t="n">
-        <v>156718</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="X15" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66009</v>
       </c>
-      <c r="B16" t="n">
-        <v>156719</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X16" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66009</v>
       </c>
-      <c r="B17" t="n">
-        <v>156720</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="n">
         <v>5</v>
       </c>
@@ -2582,135 +3332,117 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="X17" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66009</v>
       </c>
-      <c r="B18" t="n">
-        <v>34266</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="X18" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66009</v>
       </c>
-      <c r="B19" t="n">
-        <v>156721</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2732,295 +3464,261 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66009</v>
       </c>
-      <c r="B20" t="n">
-        <v>156722</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="X20" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66009</v>
       </c>
-      <c r="B21" t="n">
-        <v>156723</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O21" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66009</v>
       </c>
-      <c r="B22" t="n">
-        <v>156724</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66009</v>
       </c>
-      <c r="B23" t="n">
-        <v>156725</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>5</v>
       </c>
@@ -3032,60 +3730,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66009</v>
       </c>
-      <c r="B24" t="n">
-        <v>156726</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3101,206 +3795,204 @@
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="X24" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66009</v>
       </c>
-      <c r="B25" t="n">
-        <v>115523</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>217</v>
       </c>
-      <c r="K25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" t="s">
-        <v>225</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>185</v>
-      </c>
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
-        <v>63</v>
-      </c>
       <c r="X25" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66009</v>
       </c>
-      <c r="B26" t="n">
-        <v>156727</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="X26" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66009</v>
       </c>
-      <c r="B27" t="n">
-        <v>156728</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
         <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3322,275 +4014,265 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66009</v>
       </c>
-      <c r="B28" t="n">
-        <v>156729</v>
-      </c>
-      <c r="C28" t="s">
-        <v>240</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X28" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66009</v>
       </c>
-      <c r="B29" t="n">
-        <v>156730</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66009</v>
       </c>
-      <c r="B30" t="n">
-        <v>8209</v>
-      </c>
-      <c r="C30" t="s">
-        <v>255</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X30" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66009</v>
       </c>
-      <c r="B31" t="n">
-        <v>103876</v>
-      </c>
-      <c r="C31" t="s">
-        <v>262</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
         <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3612,126 +4294,114 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X31" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66009</v>
       </c>
-      <c r="B32" t="n">
-        <v>156731</v>
-      </c>
-      <c r="C32" t="s">
-        <v>268</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X32" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66009</v>
       </c>
-      <c r="B33" t="n">
-        <v>156732</v>
-      </c>
-      <c r="C33" t="s">
-        <v>276</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3740,7 +4410,7 @@
         <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3749,237 +4419,3626 @@
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X33" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66009</v>
       </c>
-      <c r="B34" t="n">
-        <v>68772</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
         <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="n">
         <v>5</v>
       </c>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66009</v>
       </c>
-      <c r="B35" t="n">
-        <v>156733</v>
-      </c>
-      <c r="C35" t="s">
-        <v>290</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
         <v>286</v>
       </c>
-      <c r="K35" t="s">
-        <v>293</v>
-      </c>
-      <c r="L35" t="s">
-        <v>294</v>
-      </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
         <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="X35" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66009</v>
       </c>
-      <c r="B36" t="n">
-        <v>156734</v>
-      </c>
-      <c r="C36" t="s">
-        <v>296</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
         <v>274</v>
       </c>
       <c r="O36" t="s">
+        <v>140</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>241</v>
+      </c>
+      <c r="X36" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>241</v>
+      </c>
+      <c r="X37" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s">
+        <v>305</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>306</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>241</v>
+      </c>
+      <c r="X38" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>241</v>
+      </c>
+      <c r="X39" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>306</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>241</v>
+      </c>
+      <c r="X40" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>241</v>
+      </c>
+      <c r="X41" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" t="s">
+        <v>330</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>241</v>
+      </c>
+      <c r="X42" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>241</v>
+      </c>
+      <c r="X43" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>339</v>
+      </c>
+      <c r="J44" t="s">
+        <v>340</v>
+      </c>
+      <c r="K44" t="s">
+        <v>341</v>
+      </c>
+      <c r="L44" t="s">
+        <v>342</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>241</v>
+      </c>
+      <c r="X44" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" t="s">
+        <v>347</v>
+      </c>
+      <c r="L45" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>299</v>
+      </c>
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>241</v>
+      </c>
+      <c r="X45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>299</v>
+      </c>
+      <c r="O46" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>241</v>
+      </c>
+      <c r="X46" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>360</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>241</v>
+      </c>
+      <c r="X47" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>299</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>241</v>
+      </c>
+      <c r="X48" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>241</v>
+      </c>
+      <c r="X49" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>241</v>
+      </c>
+      <c r="X50" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>373</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>241</v>
+      </c>
+      <c r="X51" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>241</v>
+      </c>
+      <c r="X52" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>392</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K53" t="s">
+        <v>395</v>
+      </c>
+      <c r="L53" t="s">
+        <v>396</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>96</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>241</v>
+      </c>
+      <c r="X53" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" t="s">
+        <v>400</v>
+      </c>
+      <c r="K54" t="s">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s">
+        <v>402</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>373</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>241</v>
+      </c>
+      <c r="X54" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>404</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>405</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>373</v>
+      </c>
+      <c r="O55" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>241</v>
+      </c>
+      <c r="X55" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>410</v>
+      </c>
+      <c r="J56" t="s">
+        <v>411</v>
+      </c>
+      <c r="K56" t="s">
+        <v>412</v>
+      </c>
+      <c r="L56" t="s">
+        <v>413</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>373</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>241</v>
+      </c>
+      <c r="X56" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>373</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>241</v>
+      </c>
+      <c r="X57" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>421</v>
+      </c>
+      <c r="J58" t="s">
+        <v>422</v>
+      </c>
+      <c r="K58" t="s">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s">
+        <v>424</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>241</v>
+      </c>
+      <c r="X58" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s">
+        <v>431</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>373</v>
+      </c>
+      <c r="O59" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>241</v>
+      </c>
+      <c r="X59" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>373</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>241</v>
+      </c>
+      <c r="X60" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" t="s">
+        <v>96</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>241</v>
+      </c>
+      <c r="X61" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s">
+        <v>448</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>425</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>241</v>
+      </c>
+      <c r="X62" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" t="s">
+        <v>452</v>
+      </c>
+      <c r="K63" t="s">
+        <v>453</v>
+      </c>
+      <c r="L63" t="s">
+        <v>454</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>241</v>
+      </c>
+      <c r="X63" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>457</v>
+      </c>
+      <c r="J64" t="s">
+        <v>458</v>
+      </c>
+      <c r="K64" t="s">
+        <v>459</v>
+      </c>
+      <c r="L64" t="s">
+        <v>460</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s">
+        <v>140</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>241</v>
+      </c>
+      <c r="X64" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>241</v>
+      </c>
+      <c r="X65" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>469</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>470</v>
+      </c>
+      <c r="J66" t="s">
+        <v>471</v>
+      </c>
+      <c r="K66" t="s">
+        <v>472</v>
+      </c>
+      <c r="L66" t="s">
+        <v>473</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>425</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>241</v>
+      </c>
+      <c r="X66" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>475</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>476</v>
+      </c>
+      <c r="J67" t="s">
+        <v>477</v>
+      </c>
+      <c r="K67" t="s">
+        <v>478</v>
+      </c>
+      <c r="L67" t="s">
+        <v>479</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>480</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>241</v>
+      </c>
+      <c r="X67" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>480</v>
+      </c>
+      <c r="O68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>241</v>
+      </c>
+      <c r="X68" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>488</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+      <c r="J69" t="s">
+        <v>484</v>
+      </c>
+      <c r="K69" t="s">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s">
+        <v>491</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>480</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>241</v>
+      </c>
+      <c r="X69" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>493</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>494</v>
+      </c>
+      <c r="J70" t="s">
+        <v>484</v>
+      </c>
+      <c r="K70" t="s">
+        <v>495</v>
+      </c>
+      <c r="L70" t="s">
+        <v>496</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>241</v>
+      </c>
+      <c r="X70" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
         <v>70</v>
       </c>
-      <c r="P36" t="n">
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>499</v>
+      </c>
+      <c r="J71" t="s">
+        <v>500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>501</v>
+      </c>
+      <c r="L71" t="s">
+        <v>502</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>480</v>
+      </c>
+      <c r="O71" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>241</v>
+      </c>
+      <c r="X71" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>504</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>505</v>
+      </c>
+      <c r="J72" t="s">
+        <v>506</v>
+      </c>
+      <c r="K72" t="s">
+        <v>507</v>
+      </c>
+      <c r="L72" t="s">
+        <v>508</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>467</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>241</v>
+      </c>
+      <c r="X72" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>511</v>
+      </c>
+      <c r="J73" t="s">
+        <v>512</v>
+      </c>
+      <c r="K73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L73" t="s">
+        <v>514</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>467</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
         <v>4</v>
       </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
-      <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
-        <v>63</v>
-      </c>
-      <c r="X36" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>302</v>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>241</v>
+      </c>
+      <c r="X73" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>467</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>241</v>
+      </c>
+      <c r="X74" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>522</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>523</v>
+      </c>
+      <c r="J75" t="s">
+        <v>518</v>
+      </c>
+      <c r="K75" t="s">
+        <v>524</v>
+      </c>
+      <c r="L75" t="s">
+        <v>525</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>467</v>
+      </c>
+      <c r="O75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>241</v>
+      </c>
+      <c r="X75" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>528</v>
+      </c>
+      <c r="J76" t="s">
+        <v>529</v>
+      </c>
+      <c r="K76" t="s">
+        <v>530</v>
+      </c>
+      <c r="L76" t="s">
+        <v>531</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>467</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>241</v>
+      </c>
+      <c r="X76" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>533</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>534</v>
+      </c>
+      <c r="J77" t="s">
+        <v>535</v>
+      </c>
+      <c r="K77" t="s">
+        <v>536</v>
+      </c>
+      <c r="L77" t="s">
+        <v>537</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O77" t="s">
+        <v>112</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>241</v>
+      </c>
+      <c r="X77" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>539</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>540</v>
+      </c>
+      <c r="J78" t="s">
+        <v>541</v>
+      </c>
+      <c r="K78" t="s">
+        <v>542</v>
+      </c>
+      <c r="L78" t="s">
+        <v>543</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>467</v>
+      </c>
+      <c r="O78" t="s">
+        <v>96</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>241</v>
+      </c>
+      <c r="X78" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>545</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>546</v>
+      </c>
+      <c r="J79" t="s">
+        <v>547</v>
+      </c>
+      <c r="K79" t="s">
+        <v>548</v>
+      </c>
+      <c r="L79" t="s">
+        <v>549</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>467</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>241</v>
+      </c>
+      <c r="X79" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>551</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>552</v>
+      </c>
+      <c r="J80" t="s">
+        <v>553</v>
+      </c>
+      <c r="K80" t="s">
+        <v>554</v>
+      </c>
+      <c r="L80" t="s">
+        <v>555</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>467</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>241</v>
+      </c>
+      <c r="X80" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>557</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>558</v>
+      </c>
+      <c r="J81" t="s">
+        <v>559</v>
+      </c>
+      <c r="K81" t="s">
+        <v>560</v>
+      </c>
+      <c r="L81" t="s">
+        <v>561</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>562</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>241</v>
+      </c>
+      <c r="X81" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>564</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>565</v>
+      </c>
+      <c r="J82" t="s">
+        <v>559</v>
+      </c>
+      <c r="K82" t="s">
+        <v>566</v>
+      </c>
+      <c r="L82" t="s">
+        <v>567</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>562</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>241</v>
+      </c>
+      <c r="X82" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>569</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>570</v>
+      </c>
+      <c r="J83" t="s">
+        <v>571</v>
+      </c>
+      <c r="K83" t="s">
+        <v>572</v>
+      </c>
+      <c r="L83" t="s">
+        <v>573</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>562</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>241</v>
+      </c>
+      <c r="X83" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>575</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>576</v>
+      </c>
+      <c r="J84" t="s">
+        <v>577</v>
+      </c>
+      <c r="K84" t="s">
+        <v>578</v>
+      </c>
+      <c r="L84" t="s">
+        <v>579</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>562</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>241</v>
+      </c>
+      <c r="X84" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66009</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>581</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>582</v>
+      </c>
+      <c r="J85" t="s">
+        <v>583</v>
+      </c>
+      <c r="K85" t="s">
+        <v>584</v>
+      </c>
+      <c r="L85" t="s">
+        <v>585</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>562</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>241</v>
+      </c>
+      <c r="X85" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
